--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-abra-top-by-haul.xlsx
@@ -50,7 +50,7 @@
     <t>sorrovv</t>
   </si>
   <si>
-    <t>143 ч. 8 мин. 15 сек.</t>
+    <t>143 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -59,7 +59,7 @@
     <t>gosknyaz</t>
   </si>
   <si>
-    <t>109 ч. 2 мин. 54 сек.</t>
+    <t>109 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>3</t>
@@ -68,7 +68,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>99 ч. 19 мин. 0 сек.</t>
+    <t>99 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -86,7 +86,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>89 ч. 32 мин. 0 сек.</t>
+    <t>89 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -95,7 +95,7 @@
     <t>vd49</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 5 сек.</t>
+    <t>86 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -167,7 +167,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>52 ч. 58 мин. 6 сек.</t>
+    <t>52 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -185,7 +185,7 @@
     <t>zilok5301</t>
   </si>
   <si>
-    <t>50 ч. 20 мин. 2 сек.</t>
+    <t>50 ч. 20 мин. 02 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -203,7 +203,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 57 сек.</t>
+    <t>49 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -212,7 +212,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>48 ч. 1 мин. 55 сек.</t>
+    <t>48 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -221,7 +221,7 @@
     <t>albert-</t>
   </si>
   <si>
-    <t>47 ч. 4 мин. 59 сек.</t>
+    <t>47 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -239,7 +239,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>46 ч. 36 мин. 1 сек.</t>
+    <t>46 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -266,7 +266,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>44 ч. 7 мин. 41 сек.</t>
+    <t>44 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -284,7 +284,7 @@
     <t>klausewitz</t>
   </si>
   <si>
-    <t>41 ч. 15 мин. 6 сек.</t>
+    <t>41 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -338,7 +338,7 @@
     <t>akanat</t>
   </si>
   <si>
-    <t>38 ч. 12 мин. 4 сек.</t>
+    <t>38 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>34</t>
@@ -347,7 +347,7 @@
     <t>Satory</t>
   </si>
   <si>
-    <t>38 ч. 4 мин. 9 сек.</t>
+    <t>38 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -356,7 +356,7 @@
     <t>Дело_в_шляпе</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 52 сек.</t>
+    <t>38 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>36</t>
@@ -374,7 +374,7 @@
     <t>Эхпрокачуу</t>
   </si>
   <si>
-    <t>36 ч. 7 мин. 52 сек.</t>
+    <t>36 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -383,7 +383,7 @@
     <t>Nistu</t>
   </si>
   <si>
-    <t>35 ч. 37 мин. 3 сек.</t>
+    <t>35 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -428,7 +428,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>33 ч. 1 мин. 28 сек.</t>
+    <t>33 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -437,7 +437,7 @@
     <t>ТОМА-АТОМНАЯ</t>
   </si>
   <si>
-    <t>32 ч. 40 мин. 9 сек.</t>
+    <t>32 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -455,7 +455,7 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>32 ч. 22 мин. 7 сек.</t>
+    <t>32 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>47</t>
@@ -473,7 +473,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>31 ч. 6 мин. 36 сек.</t>
+    <t>31 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>49</t>
@@ -491,7 +491,7 @@
     <t>kcennia</t>
   </si>
   <si>
-    <t>30 ч. 44 мин. 8 сек.</t>
+    <t>30 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -554,7 +554,7 @@
     <t>БурячОК</t>
   </si>
   <si>
-    <t>27 ч. 0 мин. 59 сек.</t>
+    <t>27 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -608,7 +608,7 @@
     <t>Boolbek</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -617,7 +617,7 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 56 сек.</t>
+    <t>26 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -653,7 +653,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 51 сек.</t>
+    <t>25 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -698,7 +698,7 @@
     <t>olimpicano</t>
   </si>
   <si>
-    <t>24 ч. 3 мин. 55 сек.</t>
+    <t>24 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>74</t>
@@ -788,7 +788,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>22 ч. 37 мин. 2 сек.</t>
+    <t>22 ч. 37 мин. 02 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -815,7 +815,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>87</t>
@@ -869,7 +869,7 @@
     <t>Катушка</t>
   </si>
   <si>
-    <t>21 ч. 26 мин. 3 сек.</t>
+    <t>21 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -887,7 +887,7 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>21 ч. 21 мин. 1 сек.</t>
+    <t>21 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>95</t>
@@ -905,7 +905,7 @@
     <t>mazirat</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 0 сек.</t>
+    <t>21 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>97</t>
@@ -914,7 +914,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>98</t>
@@ -941,7 +941,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 8 сек.</t>
+    <t>20 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>101</t>
@@ -950,7 +950,7 @@
     <t>DietrichDeurt</t>
   </si>
   <si>
-    <t>20 ч. 31 мин. 6 сек.</t>
+    <t>20 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>102</t>
@@ -977,7 +977,7 @@
     <t>Pipl</t>
   </si>
   <si>
-    <t>20 ч. 22 мин. 7 сек.</t>
+    <t>20 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -995,7 +995,7 @@
     <t>Maksuta</t>
   </si>
   <si>
-    <t>20 ч. 10 мин. 8 сек.</t>
+    <t>20 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>107</t>
@@ -1004,7 +1004,7 @@
     <t>Hei5</t>
   </si>
   <si>
-    <t>20 ч. 1 мин. 35 сек.</t>
+    <t>20 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>108</t>
@@ -1085,7 +1085,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 20 сек.</t>
+    <t>19 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1094,7 +1094,7 @@
     <t>persona48</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 27 сек.</t>
+    <t>19 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>118</t>
@@ -1103,7 +1103,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>119</t>
@@ -1112,7 +1112,7 @@
     <t>SimFirso</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 13 сек.</t>
+    <t>19 ч. 03 мин. 13 сек.</t>
   </si>
   <si>
     <t>120</t>
@@ -1121,7 +1121,7 @@
     <t>Tatsi_3006</t>
   </si>
   <si>
-    <t>19 ч. 0 мин. 55 сек.</t>
+    <t>19 ч. 00 мин. 55 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1238,7 +1238,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>18 ч. 22 мин. 0 сек.</t>
+    <t>18 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>134</t>
@@ -1256,7 +1256,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>18 ч. 19 мин. 0 сек.</t>
+    <t>18 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>136</t>
@@ -1274,7 +1274,7 @@
     <t>Amateur_</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 55 сек.</t>
+    <t>18 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1328,7 +1328,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>17 ч. 35 мин. 4 сек.</t>
+    <t>17 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>144</t>
@@ -1373,7 +1373,7 @@
     <t>Bozhidar</t>
   </si>
   <si>
-    <t>17 ч. 27 мин. 1 сек.</t>
+    <t>17 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>149</t>
@@ -1382,7 +1382,7 @@
     <t>keeper555</t>
   </si>
   <si>
-    <t>17 ч. 26 мин. 8 сек.</t>
+    <t>17 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>150</t>
@@ -1445,7 +1445,7 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 30 сек.</t>
+    <t>17 ч. 08 мин. 30 сек.</t>
   </si>
   <si>
     <t>157</t>
@@ -1454,7 +1454,7 @@
     <t>vova555</t>
   </si>
   <si>
-    <t>17 ч. 5 мин. 7 сек.</t>
+    <t>17 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>158</t>
@@ -1463,7 +1463,7 @@
     <t>Ямастер</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 9 сек.</t>
+    <t>17 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1472,7 +1472,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 57 сек.</t>
+    <t>17 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>160</t>
@@ -1526,7 +1526,7 @@
     <t>diskorkl</t>
   </si>
   <si>
-    <t>16 ч. 45 мин. 2 сек.</t>
+    <t>16 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>166</t>
@@ -1571,7 +1571,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>16 ч. 38 мин. 2 сек.</t>
+    <t>16 ч. 38 мин. 02 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1625,7 +1625,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>16 ч. 22 мин. 5 сек.</t>
+    <t>16 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>177</t>
@@ -1652,7 +1652,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 25 сек.</t>
+    <t>16 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>180</t>
@@ -1661,7 +1661,7 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>15 ч. 58 мин. 3 сек.</t>
+    <t>15 ч. 58 мин. 03 сек.</t>
   </si>
   <si>
     <t>181</t>
@@ -1697,7 +1697,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 4 сек.</t>
+    <t>15 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>185</t>
@@ -1733,7 +1733,7 @@
     <t>supereko</t>
   </si>
   <si>
-    <t>15 ч. 30 мин. 4 сек.</t>
+    <t>15 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1742,7 +1742,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>15 ч. 26 мин. 8 сек.</t>
+    <t>15 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>190</t>
@@ -1751,7 +1751,7 @@
     <t>volk70</t>
   </si>
   <si>
-    <t>15 ч. 13 мин. 9 сек.</t>
+    <t>15 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>191</t>
@@ -1778,7 +1778,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 14 сек.</t>
+    <t>15 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1787,7 +1787,7 @@
     <t>Тенерифа</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 34 сек.</t>
+    <t>15 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>195</t>
@@ -1796,7 +1796,7 @@
     <t>ASN</t>
   </si>
   <si>
-    <t>15 ч. 5 мин. 24 сек.</t>
+    <t>15 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1805,7 +1805,7 @@
     <t>NordVic</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 20 сек.</t>
+    <t>15 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>197</t>
@@ -1850,7 +1850,7 @@
     <t>zvo4</t>
   </si>
   <si>
-    <t>14 ч. 34 мин. 0 сек.</t>
+    <t>14 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -1940,7 +1940,7 @@
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 36 сек.</t>
+    <t>14 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>212</t>
@@ -1949,7 +1949,7 @@
     <t>Nowhereman42nd</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 24 сек.</t>
+    <t>14 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>213</t>
@@ -1958,7 +1958,7 @@
     <t>wizardwizard</t>
   </si>
   <si>
-    <t>14 ч. 0 мин. 5 сек.</t>
+    <t>14 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>214</t>
@@ -1985,7 +1985,7 @@
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>13 ч. 51 мин. 7 сек.</t>
+    <t>13 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>217</t>
@@ -2030,7 +2030,7 @@
     <t>rovno</t>
   </si>
   <si>
-    <t>13 ч. 42 мин. 7 сек.</t>
+    <t>13 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>222</t>
@@ -2201,7 +2201,7 @@
     <t>Jenty</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 57 сек.</t>
+    <t>13 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2210,7 +2210,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 37 сек.</t>
+    <t>13 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2219,7 +2219,7 @@
     <t>vido88</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 58 сек.</t>
+    <t>13 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2228,7 +2228,7 @@
     <t>Zema11</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 18 сек.</t>
+    <t>13 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2237,7 +2237,7 @@
     <t>Realshi</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 43 сек.</t>
+    <t>13 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2246,7 +2246,7 @@
     <t>задумчивый</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 49 сек.</t>
+    <t>13 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>246</t>
@@ -2273,7 +2273,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>12 ч. 57 мин. 6 сек.</t>
+    <t>12 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>249</t>
@@ -2372,7 +2372,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2381,7 +2381,7 @@
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 5 сек.</t>
+    <t>12 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>261</t>
@@ -2390,7 +2390,7 @@
     <t>LoremIspum</t>
   </si>
   <si>
-    <t>12 ч. 42 мин. 4 сек.</t>
+    <t>12 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2480,7 +2480,7 @@
     <t>Anatoly79</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>272</t>
@@ -2489,7 +2489,7 @@
     <t>andrux2020</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 39 сек.</t>
+    <t>12 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>273</t>
@@ -2498,7 +2498,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 23 сек.</t>
+    <t>12 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>274</t>
@@ -2507,7 +2507,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 7 сек.</t>
+    <t>12 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>275</t>
@@ -2516,7 +2516,7 @@
     <t>_nikki_</t>
   </si>
   <si>
-    <t>12 ч. 5 мин. 52 сек.</t>
+    <t>12 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2525,7 +2525,7 @@
     <t>GlaVV</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 0 сек.</t>
+    <t>12 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2534,7 +2534,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 47 сек.</t>
+    <t>12 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>278</t>
@@ -2543,7 +2543,7 @@
     <t>schamuil</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>279</t>
@@ -2552,7 +2552,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 27 сек.</t>
+    <t>12 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2561,7 +2561,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 38 сек.</t>
+    <t>12 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>281</t>
@@ -2570,7 +2570,7 @@
     <t>Yuron_19</t>
   </si>
   <si>
-    <t>12 ч. 0 мин. 1 сек.</t>
+    <t>12 ч. 00 мин. 01 сек.</t>
   </si>
   <si>
     <t>282</t>
@@ -2624,7 +2624,7 @@
     <t>19550801</t>
   </si>
   <si>
-    <t>11 ч. 51 мин. 8 сек.</t>
+    <t>11 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>288</t>
@@ -2633,7 +2633,7 @@
     <t>Lelick</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 5 сек.</t>
+    <t>11 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2705,7 +2705,7 @@
     <t>kosal</t>
   </si>
   <si>
-    <t>11 ч. 32 мин. 9 сек.</t>
+    <t>11 ч. 32 мин. 09 сек.</t>
   </si>
   <si>
     <t>297</t>
@@ -2786,7 +2786,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 2 сек.</t>
+    <t>11 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>306</t>
@@ -2858,7 +2858,7 @@
     <t>akinojes</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 40 сек.</t>
+    <t>11 ч. 09 мин. 40 сек.</t>
   </si>
   <si>
     <t>314</t>
@@ -2867,7 +2867,7 @@
     <t>Ежики</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 45 сек.</t>
+    <t>11 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>315</t>
@@ -2876,7 +2876,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 2 сек.</t>
+    <t>11 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2885,7 +2885,7 @@
     <t>nick1m</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 30 сек.</t>
+    <t>11 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -2894,7 +2894,7 @@
     <t>Aksi25</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 52 сек.</t>
+    <t>11 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2903,7 +2903,7 @@
     <t>spartakne</t>
   </si>
   <si>
-    <t>11 ч. 0 мин. 37 сек.</t>
+    <t>11 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2957,7 +2957,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>10 ч. 52 мин. 8 сек.</t>
+    <t>10 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -2966,7 +2966,7 @@
     <t>Glage</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 4 сек.</t>
+    <t>10 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>326</t>
@@ -3038,7 +3038,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>10 ч. 41 мин. 9 сек.</t>
+    <t>10 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>334</t>
@@ -3083,7 +3083,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>10 ч. 37 мин. 8 сек.</t>
+    <t>10 ч. 37 мин. 08 сек.</t>
   </si>
   <si>
     <t>339</t>
@@ -3137,7 +3137,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 2 сек.</t>
+    <t>10 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>345</t>
@@ -3146,7 +3146,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 4 сек.</t>
+    <t>10 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>346</t>
@@ -3254,7 +3254,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 27 сек.</t>
+    <t>10 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>358</t>
@@ -3353,7 +3353,7 @@
     <t>IgorGrin</t>
   </si>
   <si>
-    <t>9 ч. 32 мин. 3 сек.</t>
+    <t>9 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>369</t>
@@ -3371,7 +3371,7 @@
     <t>Flydee</t>
   </si>
   <si>
-    <t>9 ч. 27 мин. 0 сек.</t>
+    <t>9 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>371</t>
@@ -3389,7 +3389,7 @@
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>373</t>
@@ -3407,7 +3407,7 @@
     <t>Doxly</t>
   </si>
   <si>
-    <t>9 ч. 21 мин. 8 сек.</t>
+    <t>9 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>bkozhaev</t>
@@ -3536,7 +3536,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>9 ч. 10 мин. 5 сек.</t>
+    <t>9 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>390</t>
@@ -3545,7 +3545,7 @@
     <t>ivan_grishov96</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 26 сек.</t>
+    <t>9 ч. 08 мин. 26 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -3554,7 +3554,7 @@
     <t>AlexUnder</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 16 сек.</t>
+    <t>9 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>392</t>
@@ -3563,7 +3563,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 3 сек.</t>
+    <t>9 ч. 08 мин. 03 сек.</t>
   </si>
   <si>
     <t>393</t>
@@ -3572,7 +3572,7 @@
     <t>вазовик</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 59 сек.</t>
+    <t>9 ч. 07 мин. 59 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3581,7 +3581,7 @@
     <t>Mediator</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>395</t>
@@ -3590,7 +3590,7 @@
     <t>DiMan84</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 23 сек.</t>
+    <t>9 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>396</t>
@@ -3599,7 +3599,7 @@
     <t>Воронин</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 9 сек.</t>
+    <t>9 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -3608,7 +3608,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>398</t>
@@ -3617,7 +3617,7 @@
     <t>zald</t>
   </si>
   <si>
-    <t>9 ч. 2 мин. 38 сек.</t>
+    <t>9 ч. 02 мин. 38 сек.</t>
   </si>
   <si>
     <t>399</t>
@@ -3644,7 +3644,7 @@
     <t>Vadim30</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 2 сек.</t>
+    <t>8 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>402</t>
@@ -3737,7 +3737,7 @@
     <t>vvoland</t>
   </si>
   <si>
-    <t>8 ч. 38 мин. 4 сек.</t>
+    <t>8 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>413</t>
@@ -3800,7 +3800,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>8 ч. 32 мин. 4 сек.</t>
+    <t>8 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>420</t>
@@ -3899,7 +3899,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>8 ч. 21 мин. 6 сек.</t>
+    <t>8 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>431</t>
@@ -4007,7 +4007,7 @@
     <t>Grarad</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 33 сек.</t>
+    <t>8 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>443</t>
@@ -4016,7 +4016,7 @@
     <t>Alex_fey</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 50 сек.</t>
+    <t>8 ч. 05 мин. 50 сек.</t>
   </si>
   <si>
     <t>444</t>
@@ -4025,7 +4025,7 @@
     <t>fobos87</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 25 сек.</t>
+    <t>8 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>445</t>
@@ -4034,7 +4034,7 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 30 сек.</t>
+    <t>8 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>446</t>
@@ -4133,7 +4133,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>7 ч. 49 мин. 2 сек.</t>
+    <t>7 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>457</t>
@@ -4160,7 +4160,7 @@
     <t>Александр88</t>
   </si>
   <si>
-    <t>7 ч. 48 мин. 1 сек.</t>
+    <t>7 ч. 48 мин. 01 сек.</t>
   </si>
   <si>
     <t>460</t>
@@ -4196,7 +4196,7 @@
     <t>Alkaline</t>
   </si>
   <si>
-    <t>7 ч. 44 мин. 3 сек.</t>
+    <t>7 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>464</t>
@@ -4214,7 +4214,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>466</t>
@@ -4223,7 +4223,7 @@
     <t>MoskovKazanova</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 1 сек.</t>
+    <t>7 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -4343,7 +4343,7 @@
     <t>zevsman</t>
   </si>
   <si>
-    <t>7 ч. 37 мин. 4 сек.</t>
+    <t>7 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4361,7 +4361,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>7 ч. 36 мин. 3 сек.</t>
+    <t>7 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4370,7 +4370,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>7 ч. 35 мин. 5 сек.</t>
+    <t>7 ч. 35 мин. 05 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4415,7 +4415,7 @@
     <t>winix</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 5 сек.</t>
+    <t>7 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4433,7 +4433,7 @@
     <t>aseran</t>
   </si>
   <si>
-    <t>7 ч. 28 мин. 8 сек.</t>
+    <t>7 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -4451,7 +4451,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>7 ч. 24 мин. 3 сек.</t>
+    <t>7 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>493</t>
@@ -4478,7 +4478,7 @@
     <t>serg3295</t>
   </si>
   <si>
-    <t>7 ч. 20 мин. 9 сек.</t>
+    <t>7 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>496</t>
@@ -4541,7 +4541,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 8 сек.</t>
+    <t>7 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>503</t>
@@ -4550,7 +4550,7 @@
     <t>takobus</t>
   </si>
   <si>
-    <t>7 ч. 14 мин. 4 сек.</t>
+    <t>7 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>504</t>
@@ -4559,7 +4559,7 @@
     <t>sano7161</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 2 сек.</t>
+    <t>7 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>505</t>
@@ -4568,7 +4568,7 @@
     <t>Tata3808</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>506</t>
@@ -4604,7 +4604,7 @@
     <t>Convicted</t>
   </si>
   <si>
-    <t>7 ч. 8 мин. 11 сек.</t>
+    <t>7 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>510</t>
@@ -4613,7 +4613,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 31 сек.</t>
+    <t>7 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>511</t>
@@ -4622,7 +4622,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 29 сек.</t>
+    <t>7 ч. 06 мин. 29 сек.</t>
   </si>
   <si>
     <t>512</t>
@@ -4631,7 +4631,7 @@
     <t>ВолкТряпошный</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 49 сек.</t>
+    <t>7 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>513</t>
@@ -4640,7 +4640,7 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 11 сек.</t>
+    <t>7 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4649,7 +4649,7 @@
     <t>kpavel1990</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 3 сек.</t>
+    <t>7 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>515</t>
@@ -4658,7 +4658,7 @@
     <t>Ergond</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 20 сек.</t>
+    <t>7 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>516</t>
@@ -4667,7 +4667,7 @@
     <t>helgooooooooo_O</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 47 сек.</t>
+    <t>7 ч. 02 мин. 47 сек.</t>
   </si>
   <si>
     <t>517</t>
@@ -4676,7 +4676,7 @@
     <t>Шадрин</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 46 сек.</t>
+    <t>7 ч. 02 мин. 46 сек.</t>
   </si>
   <si>
     <t>518</t>
@@ -4685,7 +4685,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 45 сек.</t>
+    <t>7 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>519</t>
@@ -4694,7 +4694,7 @@
     <t>BIKE-off</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 9 сек.</t>
+    <t>7 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>520–521</t>
@@ -4715,7 +4715,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>6 ч. 58 мин. 8 сек.</t>
+    <t>6 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>523</t>
@@ -4796,7 +4796,7 @@
     <t>platonegorov</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 9 сек.</t>
+    <t>6 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>532</t>
@@ -4805,7 +4805,7 @@
     <t>Flam91</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 5 сек.</t>
+    <t>6 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>533</t>
@@ -4859,7 +4859,7 @@
     <t>фонГрамофон</t>
   </si>
   <si>
-    <t>6 ч. 40 мин. 3 сек.</t>
+    <t>6 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4877,7 +4877,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>6 ч. 37 мин. 3 сек.</t>
+    <t>6 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>541</t>
@@ -4904,7 +4904,7 @@
     <t>caym</t>
   </si>
   <si>
-    <t>6 ч. 35 мин. 1 сек.</t>
+    <t>6 ч. 35 мин. 01 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -4922,7 +4922,7 @@
     <t>gektor768</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 9 сек.</t>
+    <t>6 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>546</t>
@@ -4931,7 +4931,7 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>6 ч. 34 мин. 3 сек.</t>
+    <t>6 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>547</t>
@@ -4967,7 +4967,7 @@
     <t>ShdwWrrr</t>
   </si>
   <si>
-    <t>6 ч. 32 мин. 2 сек.</t>
+    <t>6 ч. 32 мин. 02 сек.</t>
   </si>
   <si>
     <t>551</t>
@@ -5138,7 +5138,7 @@
     <t>Rain</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 5 сек.</t>
+    <t>6 ч. 20 мин. 05 сек.</t>
   </si>
   <si>
     <t>570</t>
@@ -5165,7 +5165,7 @@
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 18 мин. 4 сек.</t>
+    <t>6 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>573</t>
@@ -5183,7 +5183,7 @@
     <t>lewchel</t>
   </si>
   <si>
-    <t>6 ч. 16 мин. 0 сек.</t>
+    <t>6 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>575</t>
@@ -5228,7 +5228,7 @@
     <t>WANWAN</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 2 сек.</t>
+    <t>6 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>580</t>
@@ -5237,7 +5237,7 @@
     <t>vogoniu</t>
   </si>
   <si>
-    <t>6 ч. 14 мин. 0 сек.</t>
+    <t>6 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>581</t>
@@ -5291,7 +5291,7 @@
     <t>JWRoosi4</t>
   </si>
   <si>
-    <t>6 ч. 10 мин. 1 сек.</t>
+    <t>6 ч. 10 мин. 01 сек.</t>
   </si>
   <si>
     <t>587</t>
@@ -5300,7 +5300,7 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 38 сек.</t>
+    <t>6 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>588</t>
@@ -5309,7 +5309,7 @@
     <t>Flexx971</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 24 сек.</t>
+    <t>6 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>589</t>
@@ -5318,7 +5318,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 19 сек.</t>
+    <t>6 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>590</t>
@@ -5327,7 +5327,7 @@
     <t>koljan359</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 17 сек.</t>
+    <t>6 ч. 09 мин. 17 сек.</t>
   </si>
   <si>
     <t>591</t>
@@ -5336,7 +5336,7 @@
     <t>yaguarvl</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 1 сек.</t>
+    <t>6 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>592</t>
@@ -5345,7 +5345,7 @@
     <t>nadgarstek</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 18 сек.</t>
+    <t>6 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>593</t>
@@ -5354,7 +5354,7 @@
     <t>Garmonica</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 30 сек.</t>
+    <t>6 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>594</t>
@@ -5363,7 +5363,7 @@
     <t>Леоня</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 57 сек.</t>
+    <t>6 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>595</t>
@@ -5372,7 +5372,7 @@
     <t>Noiz</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 56 сек.</t>
+    <t>6 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>596</t>
@@ -5381,7 +5381,7 @@
     <t>anho</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 51 сек.</t>
+    <t>6 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>597</t>
@@ -5390,7 +5390,7 @@
     <t>woffkass</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 37 сек.</t>
+    <t>6 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5399,7 +5399,7 @@
     <t>Alexar</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 26 сек.</t>
+    <t>6 ч. 06 мин. 26 сек.</t>
   </si>
   <si>
     <t>599</t>
@@ -5408,7 +5408,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 12 сек.</t>
+    <t>6 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>600</t>
@@ -5417,7 +5417,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>6 ч. 5 мин. 26 сек.</t>
+    <t>6 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>601</t>
@@ -5426,7 +5426,7 @@
     <t>Spetznaz</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 53 сек.</t>
+    <t>6 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>602</t>
@@ -5435,7 +5435,7 @@
     <t>ZVEZDNAYA</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 50 сек.</t>
+    <t>6 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>603</t>
@@ -5444,7 +5444,7 @@
     <t>LADA220876</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 29 сек.</t>
+    <t>6 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>604</t>
@@ -5462,7 +5462,7 @@
     <t>flyer_diktor</t>
   </si>
   <si>
-    <t>5 ч. 58 мин. 4 сек.</t>
+    <t>5 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>606</t>
@@ -5651,7 +5651,7 @@
     <t>ls_600_hl</t>
   </si>
   <si>
-    <t>5 ч. 46 мин. 9 сек.</t>
+    <t>5 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>627–628</t>
@@ -5681,7 +5681,7 @@
     <t>Natalochka</t>
   </si>
   <si>
-    <t>5 ч. 45 мин. 7 сек.</t>
+    <t>5 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>631</t>
@@ -5690,7 +5690,7 @@
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>5 ч. 44 мин. 4 сек.</t>
+    <t>5 ч. 44 мин. 04 сек.</t>
   </si>
   <si>
     <t>632</t>
@@ -5762,7 +5762,7 @@
     <t>kibico</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 4 сек.</t>
+    <t>5 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>640</t>
@@ -5771,7 +5771,7 @@
     <t>Vgerasimov777</t>
   </si>
   <si>
-    <t>5 ч. 39 мин. 0 сек.</t>
+    <t>5 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>641</t>
@@ -5816,7 +5816,7 @@
     <t>OlegaBaranov</t>
   </si>
   <si>
-    <t>5 ч. 37 мин. 3 сек.</t>
+    <t>5 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>646</t>
@@ -5843,7 +5843,7 @@
     <t>dslf</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>649</t>
@@ -6059,7 +6059,7 @@
     <t>Vadimnecha</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 7 сек.</t>
+    <t>5 ч. 22 мин. 07 сек.</t>
   </si>
   <si>
     <t>673</t>
@@ -6068,7 +6068,7 @@
     <t>Floopyy</t>
   </si>
   <si>
-    <t>5 ч. 22 мин. 1 сек.</t>
+    <t>5 ч. 22 мин. 01 сек.</t>
   </si>
   <si>
     <t>674</t>
@@ -6113,7 +6113,7 @@
     <t>Feliks_Smetana</t>
   </si>
   <si>
-    <t>5 ч. 20 мин. 3 сек.</t>
+    <t>5 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>679</t>
@@ -6239,7 +6239,7 @@
     <t>a_mikhaylov</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 5 сек.</t>
+    <t>5 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>693</t>
@@ -6248,7 +6248,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>5 ч. 15 мин. 0 сек.</t>
+    <t>5 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>694</t>
@@ -6311,7 +6311,7 @@
     <t>Miss_Think</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 7 сек.</t>
+    <t>5 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>701</t>
@@ -6320,7 +6320,7 @@
     <t>kubikrubika</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 6 сек.</t>
+    <t>5 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>702</t>
@@ -6329,7 +6329,7 @@
     <t>Hodorr</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 49 сек.</t>
+    <t>5 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>703</t>
@@ -6338,7 +6338,7 @@
     <t>evgenich1992</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 59 сек.</t>
+    <t>5 ч. 08 мин. 59 сек.</t>
   </si>
   <si>
     <t>704</t>
@@ -6347,7 +6347,7 @@
     <t>Plectrum</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 51 сек.</t>
+    <t>5 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>705</t>
@@ -6356,7 +6356,7 @@
     <t>Fantorn</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 7 сек.</t>
+    <t>5 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>706</t>
@@ -6365,7 +6365,7 @@
     <t>KlavoKlaxon</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 32 сек.</t>
+    <t>5 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>707</t>
@@ -6374,7 +6374,7 @@
     <t>Танитка</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>708</t>
@@ -6383,7 +6383,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 28 сек.</t>
+    <t>5 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>709</t>
@@ -6392,7 +6392,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 25 сек.</t>
+    <t>5 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>710</t>
@@ -6401,7 +6401,7 @@
     <t>ГоуВин</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 29 сек.</t>
+    <t>5 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>711</t>
@@ -6410,7 +6410,7 @@
     <t>Iuhenio</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 49 сек.</t>
+    <t>5 ч. 04 мин. 49 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -6419,7 +6419,7 @@
     <t>Stepan1990</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 56 сек.</t>
+    <t>5 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>713</t>
@@ -6428,7 +6428,7 @@
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 21 сек.</t>
+    <t>5 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>714</t>
@@ -6437,7 +6437,7 @@
     <t>lexa007</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 1 сек.</t>
+    <t>5 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>715</t>
@@ -6446,7 +6446,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>716</t>
@@ -6455,7 +6455,7 @@
     <t>Prana</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 17 сек.</t>
+    <t>5 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>717</t>
@@ -6464,7 +6464,7 @@
     <t>timofeytrsv27</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 16 сек.</t>
+    <t>5 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>718</t>
@@ -6473,7 +6473,7 @@
     <t>Pricel2</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 10 сек.</t>
+    <t>5 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>719</t>
@@ -6482,7 +6482,7 @@
     <t>__мутя__</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 43 сек.</t>
+    <t>5 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>720</t>
@@ -6536,7 +6536,7 @@
     <t>Кибертаксист</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 0 сек.</t>
+    <t>4 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>726</t>
@@ -6590,7 +6590,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>4 ч. 55 мин. 1 сек.</t>
+    <t>4 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>732</t>
@@ -6608,7 +6608,7 @@
     <t>bolbol</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 6 сек.</t>
+    <t>4 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>734</t>
@@ -6665,7 +6665,7 @@
     <t>DLemma</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 0 сек.</t>
+    <t>4 ч. 51 мин. 00 сек.</t>
   </si>
   <si>
     <t>741</t>
@@ -6728,7 +6728,7 @@
     <t>oktkos</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 7 сек.</t>
+    <t>4 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>748</t>
@@ -6737,7 +6737,7 @@
     <t>Sony_bee</t>
   </si>
   <si>
-    <t>4 ч. 49 мин. 0 сек.</t>
+    <t>4 ч. 49 мин. 00 сек.</t>
   </si>
   <si>
     <t>749</t>
@@ -6818,7 +6818,7 @@
     <t>IamCrazy</t>
   </si>
   <si>
-    <t>4 ч. 46 мин. 4 сек.</t>
+    <t>4 ч. 46 мин. 04 сек.</t>
   </si>
   <si>
     <t>758</t>
@@ -6845,7 +6845,7 @@
     <t>ктоточегото</t>
   </si>
   <si>
-    <t>4 ч. 45 мин. 7 сек.</t>
+    <t>4 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>761</t>
@@ -6872,7 +6872,7 @@
     <t>tbombadil</t>
   </si>
   <si>
-    <t>4 ч. 44 мин. 8 сек.</t>
+    <t>4 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>764</t>
@@ -6917,7 +6917,7 @@
     <t>virones</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 8 сек.</t>
+    <t>4 ч. 42 мин. 08 сек.</t>
   </si>
   <si>
     <t>769</t>
@@ -7007,7 +7007,7 @@
     <t>Tedman</t>
   </si>
   <si>
-    <t>4 ч. 39 мин. 1 сек.</t>
+    <t>4 ч. 39 мин. 01 сек.</t>
   </si>
   <si>
     <t>779</t>
@@ -7052,7 +7052,7 @@
     <t>nata-natusechka</t>
   </si>
   <si>
-    <t>4 ч. 38 мин. 8 сек.</t>
+    <t>4 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>784</t>
@@ -7079,7 +7079,7 @@
     <t>Egen</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 1 сек.</t>
+    <t>4 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>787</t>
@@ -7262,7 +7262,7 @@
     <t>fedyagor</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 5 сек.</t>
+    <t>4 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>808</t>
@@ -7343,7 +7343,7 @@
     <t>Gen1us</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 5 сек.</t>
+    <t>4 ч. 23 мин. 05 сек.</t>
   </si>
   <si>
     <t>817</t>
@@ -7487,7 +7487,7 @@
     <t>YLuch</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 7 сек.</t>
+    <t>4 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>833</t>
@@ -7613,7 +7613,7 @@
     <t>dehasevr</t>
   </si>
   <si>
-    <t>4 ч. 14 мин. 1 сек.</t>
+    <t>4 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>847</t>
@@ -7631,7 +7631,7 @@
     <t>Spaider</t>
   </si>
   <si>
-    <t>4 ч. 13 мин. 7 сек.</t>
+    <t>4 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>849</t>
@@ -7712,7 +7712,7 @@
     <t>salser1982</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 38 сек.</t>
+    <t>4 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>858</t>
@@ -7721,7 +7721,7 @@
     <t>I-van</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 36 сек.</t>
+    <t>4 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>859</t>
@@ -7730,7 +7730,7 @@
     <t>ay52_bio</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 29 сек.</t>
+    <t>4 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>860</t>
@@ -7739,7 +7739,7 @@
     <t>Elizar</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 16 сек.</t>
+    <t>4 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>861</t>
@@ -7748,7 +7748,7 @@
     <t>Tavduk</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 6 сек.</t>
+    <t>4 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>862</t>
@@ -7757,7 +7757,7 @@
     <t>Днище_грЕбаное</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 58 сек.</t>
+    <t>4 ч. 08 мин. 58 сек.</t>
   </si>
   <si>
     <t>863</t>
@@ -7766,7 +7766,7 @@
     <t>Очепяткин</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 20 сек.</t>
+    <t>4 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7775,7 +7775,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>4 ч. 8 мин. 4 сек.</t>
+    <t>4 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>865</t>
@@ -7784,7 +7784,7 @@
     <t>Pelagiad</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 55 сек.</t>
+    <t>4 ч. 07 мин. 55 сек.</t>
   </si>
   <si>
     <t>866</t>
@@ -7793,7 +7793,7 @@
     <t>puton</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 32 сек.</t>
+    <t>4 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>867</t>
@@ -7802,7 +7802,7 @@
     <t>Ishka</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 24 сек.</t>
+    <t>4 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>868</t>
@@ -7811,7 +7811,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 9 сек.</t>
+    <t>4 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>869</t>
@@ -7820,7 +7820,7 @@
     <t>stasostrouhov</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 54 сек.</t>
+    <t>4 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>870</t>
@@ -7829,7 +7829,7 @@
     <t>Вета79</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 43 сек.</t>
+    <t>4 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>871</t>
@@ -7838,7 +7838,7 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 11 сек.</t>
+    <t>4 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>872</t>
@@ -7847,7 +7847,7 @@
     <t>ail</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 26 сек.</t>
+    <t>4 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>873</t>
@@ -7856,7 +7856,7 @@
     <t>Konstantine</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 24 сек.</t>
+    <t>4 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>874</t>
@@ -7865,7 +7865,7 @@
     <t>Berkut1</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 58 сек.</t>
+    <t>4 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>875</t>
@@ -7874,7 +7874,7 @@
     <t>CiberRus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 30 сек.</t>
+    <t>4 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>876–877</t>
@@ -7883,7 +7883,7 @@
     <t>Flightz</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 27 сек.</t>
+    <t>4 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
@@ -7895,7 +7895,7 @@
     <t>Imperatorus</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 3 сек.</t>
+    <t>4 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>879</t>
@@ -7904,7 +7904,7 @@
     <t>205i</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 58 сек.</t>
+    <t>4 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>880</t>
@@ -7913,7 +7913,7 @@
     <t>Darwinian</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 39 сек.</t>
+    <t>4 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>881</t>
@@ -7922,7 +7922,7 @@
     <t>Arkadyan</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 37 сек.</t>
+    <t>4 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>882</t>
@@ -7931,7 +7931,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 14 сек.</t>
+    <t>4 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>883</t>
@@ -7940,7 +7940,7 @@
     <t>zsb</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 25 сек.</t>
+    <t>4 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>884</t>
@@ -7949,7 +7949,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 40 сек.</t>
+    <t>4 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>885</t>
@@ -7958,7 +7958,7 @@
     <t>Soulreader</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 53 сек.</t>
+    <t>4 ч. 00 мин. 53 сек.</t>
   </si>
   <si>
     <t>886</t>
@@ -7967,7 +7967,7 @@
     <t>ass1982</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 35 сек.</t>
+    <t>4 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>887</t>
@@ -7976,7 +7976,7 @@
     <t>bancir</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 20 сек.</t>
+    <t>4 ч. 00 мин. 20 сек.</t>
   </si>
   <si>
     <t>888</t>
@@ -7985,7 +7985,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 10 сек.</t>
+    <t>4 ч. 00 мин. 10 сек.</t>
   </si>
   <si>
     <t>889</t>
@@ -8021,7 +8021,7 @@
     <t>Danwer</t>
   </si>
   <si>
-    <t>3 ч. 59 мин. 2 сек.</t>
+    <t>3 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>893</t>
@@ -8237,7 +8237,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 7 сек.</t>
+    <t>3 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>917</t>
@@ -8255,7 +8255,7 @@
     <t>Feine</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 3 сек.</t>
+    <t>3 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>919</t>
@@ -8438,7 +8438,7 @@
     <t>sashokcool</t>
   </si>
   <si>
-    <t>3 ч. 44 мин. 5 сек.</t>
+    <t>3 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>940</t>
@@ -8498,7 +8498,7 @@
     <t>draaagon</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 7 сек.</t>
+    <t>3 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>948</t>
@@ -8534,7 +8534,7 @@
     <t>digit47</t>
   </si>
   <si>
-    <t>3 ч. 42 мин. 1 сек.</t>
+    <t>3 ч. 42 мин. 01 сек.</t>
   </si>
   <si>
     <t>952</t>
@@ -8597,7 +8597,7 @@
     <t>Euki</t>
   </si>
   <si>
-    <t>3 ч. 41 мин. 7 сек.</t>
+    <t>3 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>959</t>
@@ -8705,7 +8705,7 @@
     <t>1977</t>
   </si>
   <si>
-    <t>3 ч. 38 мин. 9 сек.</t>
+    <t>3 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>971</t>
@@ -8762,7 +8762,7 @@
     <t>Pill_Kates</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 7 сек.</t>
+    <t>3 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>978</t>
@@ -8771,7 +8771,7 @@
     <t>Вовчик-инженер</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 3 сек.</t>
+    <t>3 ч. 34 мин. 03 сек.</t>
   </si>
   <si>
     <t>979</t>
@@ -8990,7 +8990,7 @@
     <t>tkipzk</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 9 сек.</t>
+    <t>3 ч. 26 мин. 09 сек.</t>
   </si>
   <si>
     <t>1004</t>
@@ -8999,7 +8999,7 @@
     <t>Skiper</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 0 сек.</t>
+    <t>3 ч. 26 мин. 00 сек.</t>
   </si>
   <si>
     <t>1005</t>
@@ -9035,7 +9035,7 @@
     <t>SectuSempra</t>
   </si>
   <si>
-    <t>3 ч. 25 мин. 8 сек.</t>
+    <t>3 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>1009</t>
@@ -9074,7 +9074,7 @@
     <t>iaoz</t>
   </si>
   <si>
-    <t>3 ч. 24 мин. 7 сек.</t>
+    <t>3 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>1014</t>
@@ -9101,7 +9101,7 @@
     <t>ajrcbp</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 8 сек.</t>
+    <t>3 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>1017</t>
@@ -9227,7 +9227,7 @@
     <t>Alekeks</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 5 сек.</t>
+    <t>3 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>1031</t>
@@ -9236,7 +9236,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>3 ч. 19 мин. 0 сек.</t>
+    <t>3 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>1032</t>
@@ -9464,7 +9464,7 @@
     <t>-777-</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 2 сек.</t>
+    <t>3 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>1058</t>
@@ -9473,7 +9473,7 @@
     <t>Квак</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 0 сек.</t>
+    <t>3 ч. 13 мин. 00 сек.</t>
   </si>
   <si>
     <t>1059</t>
@@ -9527,7 +9527,7 @@
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>3 ч. 12 мин. 3 сек.</t>
+    <t>3 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>1065</t>
@@ -9554,7 +9554,7 @@
     <t>Иванна_</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 54 сек.</t>
+    <t>3 ч. 09 мин. 54 сек.</t>
   </si>
   <si>
     <t>1068</t>
@@ -9563,7 +9563,7 @@
     <t>Igem</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 38 сек.</t>
+    <t>3 ч. 09 мин. 38 сек.</t>
   </si>
   <si>
     <t>1069</t>
@@ -9572,7 +9572,7 @@
     <t>Тинейджер2004</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 29 сек.</t>
+    <t>3 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>1070</t>
@@ -9581,7 +9581,7 @@
     <t>meze</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 10 сек.</t>
+    <t>3 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>1071</t>
@@ -9590,7 +9590,7 @@
     <t>TuzemooN</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 3 сек.</t>
+    <t>3 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>1072</t>
@@ -9599,7 +9599,7 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 49 сек.</t>
+    <t>3 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>1073</t>
@@ -9608,7 +9608,7 @@
     <t>pashkinson</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 20 сек.</t>
+    <t>3 ч. 08 мин. 20 сек.</t>
   </si>
   <si>
     <t>1074</t>
@@ -9617,7 +9617,7 @@
     <t>ПЕРЖО</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 12 сек.</t>
+    <t>3 ч. 08 мин. 12 сек.</t>
   </si>
   <si>
     <t>1075</t>
@@ -9626,7 +9626,7 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 7 сек.</t>
+    <t>3 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>1076</t>
@@ -9635,7 +9635,7 @@
     <t>arokoko</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 57 сек.</t>
+    <t>3 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>1077</t>
@@ -9644,7 +9644,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 56 сек.</t>
+    <t>3 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>1078</t>
@@ -9653,7 +9653,7 @@
     <t>Ulin</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 51 сек.</t>
+    <t>3 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>1079</t>
@@ -9662,7 +9662,7 @@
     <t>ilya_138</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 29 сек.</t>
+    <t>3 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>1080</t>
@@ -9671,7 +9671,7 @@
     <t>Asjay</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 25 сек.</t>
+    <t>3 ч. 07 мин. 25 сек.</t>
   </si>
   <si>
     <t>1081</t>
@@ -9680,7 +9680,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 20 сек.</t>
+    <t>3 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>1082</t>
@@ -9689,7 +9689,7 @@
     <t>LuperZaluper</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 13 сек.</t>
+    <t>3 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>1083</t>
@@ -9698,7 +9698,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 52 сек.</t>
+    <t>3 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>1084</t>
@@ -9707,7 +9707,7 @@
     <t>Владимир1989</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 31 сек.</t>
+    <t>3 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>1085</t>
@@ -9716,7 +9716,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 5 сек.</t>
+    <t>3 ч. 06 мин. 05 сек.</t>
   </si>
   <si>
     <t>1086</t>
@@ -9725,7 +9725,7 @@
     <t>dabro</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 53 сек.</t>
+    <t>3 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>1087</t>
@@ -9734,7 +9734,7 @@
     <t>valera512</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 37 сек.</t>
+    <t>3 ч. 05 мин. 37 сек.</t>
   </si>
   <si>
     <t>1088</t>
@@ -9743,7 +9743,7 @@
     <t>formax</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 33 сек.</t>
+    <t>3 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>1089</t>
@@ -9752,7 +9752,7 @@
     <t>barera</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 32 сек.</t>
+    <t>3 ч. 05 мин. 32 сек.</t>
   </si>
   <si>
     <t>1090</t>
@@ -9761,7 +9761,7 @@
     <t>iron-fan</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 27 сек.</t>
+    <t>3 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>1091</t>
@@ -9770,7 +9770,7 @@
     <t>valera1956219</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 24 сек.</t>
+    <t>3 ч. 05 мин. 24 сек.</t>
   </si>
   <si>
     <t>1092</t>
@@ -9779,7 +9779,7 @@
     <t>Ягода</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>1093</t>
@@ -9788,7 +9788,7 @@
     <t>anclaw</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 20 сек.</t>
+    <t>3 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>1094</t>
@@ -9797,7 +9797,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 13 сек.</t>
+    <t>3 ч. 05 мин. 13 сек.</t>
   </si>
   <si>
     <t>1095</t>
@@ -9806,7 +9806,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 9 сек.</t>
+    <t>3 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>1096</t>
@@ -9815,7 +9815,7 @@
     <t>Ivanov13</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 7 сек.</t>
+    <t>3 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>1097</t>
@@ -9824,7 +9824,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 50 сек.</t>
+    <t>3 ч. 04 мин. 50 сек.</t>
   </si>
   <si>
     <t>1098</t>
@@ -9833,7 +9833,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 46 сек.</t>
+    <t>3 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>1099</t>
@@ -9842,7 +9842,7 @@
     <t>Хом</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 40 сек.</t>
+    <t>3 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>1100</t>
@@ -9851,7 +9851,7 @@
     <t>Энтони26</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 33 сек.</t>
+    <t>3 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>1101</t>
@@ -9860,7 +9860,7 @@
     <t>hotkeys</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 14 сек.</t>
+    <t>3 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>1102</t>
@@ -9869,7 +9869,7 @@
     <t>V_Alexey</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 12 сек.</t>
+    <t>3 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>1103</t>
@@ -9878,7 +9878,7 @@
     <t>Nolan_Joke</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 3 сек.</t>
+    <t>3 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>1104</t>
@@ -9887,7 +9887,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 54 сек.</t>
+    <t>3 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>1105</t>
@@ -9896,7 +9896,7 @@
     <t>apchhi</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 53 сек.</t>
+    <t>3 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>1106</t>
@@ -9905,7 +9905,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 21 сек.</t>
+    <t>3 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>1107</t>
@@ -9914,7 +9914,7 @@
     <t>ябохтыздох</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 16 сек.</t>
+    <t>3 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>1108</t>
@@ -9923,7 +9923,7 @@
     <t>Mantis43</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 1 сек.</t>
+    <t>3 ч. 03 мин. 01 сек.</t>
   </si>
   <si>
     <t>1109</t>
@@ -9932,7 +9932,7 @@
     <t>Воланд</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 55 сек.</t>
+    <t>3 ч. 02 мин. 55 сек.</t>
   </si>
   <si>
     <t>1110</t>
@@ -9941,7 +9941,7 @@
     <t>Milker</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 45 сек.</t>
+    <t>3 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>1111</t>
@@ -9950,7 +9950,7 @@
     <t>cal-lek</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 39 сек.</t>
+    <t>3 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>1112</t>
@@ -9959,7 +9959,7 @@
     <t>PushTheButton</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 25 сек.</t>
+    <t>3 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>1113</t>
@@ -9968,7 +9968,7 @@
     <t>aael</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 20 сек.</t>
+    <t>3 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>1114</t>
@@ -9977,7 +9977,7 @@
     <t>pavel88</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 48 сек.</t>
+    <t>3 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>1115</t>
@@ -9986,7 +9986,7 @@
     <t>niravel</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 5 сек.</t>
+    <t>3 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>1116</t>
@@ -9995,7 +9995,7 @@
     <t>velocipede</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 1 сек.</t>
+    <t>3 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>1117</t>
@@ -10004,7 +10004,7 @@
     <t>macrophageNT</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 49 сек.</t>
+    <t>3 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>1118</t>
@@ -10013,7 +10013,7 @@
     <t>SeaJey</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 34 сек.</t>
+    <t>3 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>1119</t>
@@ -10022,7 +10022,7 @@
     <t>Etl0n</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 17 сек.</t>
+    <t>3 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>1120</t>
@@ -10079,7 +10079,7 @@
     <t>nonstop_</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 9 сек.</t>
+    <t>2 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>1127</t>
@@ -10160,7 +10160,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 7 сек.</t>
+    <t>2 ч. 57 мин. 07 сек.</t>
   </si>
   <si>
     <t>1136</t>
@@ -10205,7 +10205,7 @@
     <t>Misha20062006</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 2 сек.</t>
+    <t>2 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>1141–1142</t>
@@ -10214,7 +10214,7 @@
     <t>SilverNeko</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 1 сек.</t>
+    <t>2 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>Flerik</t>
@@ -10253,7 +10253,7 @@
     <t>dns1337</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 3 сек.</t>
+    <t>2 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>1147</t>
@@ -10298,7 +10298,7 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 1 сек.</t>
+    <t>2 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>1152</t>
@@ -10316,7 +10316,7 @@
     <t>Analgin7</t>
   </si>
   <si>
-    <t>2 ч. 53 мин. 0 сек.</t>
+    <t>2 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>1154</t>
@@ -10505,7 +10505,7 @@
     <t>vjuh</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 9 сек.</t>
+    <t>2 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>1175</t>
@@ -10514,7 +10514,7 @@
     <t>asalaga</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 0 сек.</t>
+    <t>2 ч. 50 мин. 00 сек.</t>
   </si>
   <si>
     <t>1176</t>
@@ -10550,7 +10550,7 @@
     <t>Katyakop</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 5 сек.</t>
+    <t>2 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>1180</t>
@@ -10586,7 +10586,7 @@
     <t>сударь</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 3 сек.</t>
+    <t>2 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>1184</t>
@@ -10595,7 +10595,7 @@
     <t>eanahin8</t>
   </si>
   <si>
-    <t>2 ч. 48 мин. 2 сек.</t>
+    <t>2 ч. 48 мин. 02 сек.</t>
   </si>
   <si>
     <t>1185</t>
@@ -10751,7 +10751,7 @@
     <t>sanme</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>1203</t>
@@ -10778,7 +10778,7 @@
     <t>ВитекД</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>1206</t>
@@ -10787,7 +10787,7 @@
     <t>azyl</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 7 сек.</t>
+    <t>2 ч. 42 мин. 07 сек.</t>
   </si>
   <si>
     <t>1207</t>
@@ -10796,7 +10796,7 @@
     <t>ятвояклавиатура</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 4 сек.</t>
+    <t>2 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>1208</t>
@@ -10832,7 +10832,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 7 сек.</t>
+    <t>2 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>1212</t>
@@ -10841,7 +10841,7 @@
     <t>Thtas</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 4 сек.</t>
+    <t>2 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>1213</t>
@@ -10886,7 +10886,7 @@
     <t>qw10fing</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 9 сек.</t>
+    <t>2 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>1218</t>
@@ -10895,7 +10895,7 @@
     <t>Yaffi</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>1219</t>
@@ -11003,7 +11003,7 @@
     <t>Novatin</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 6 сек.</t>
+    <t>2 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>1231</t>
@@ -11012,7 +11012,7 @@
     <t>YaNemnogoTormoz</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>1232</t>
@@ -11093,7 +11093,7 @@
     <t>Lusil</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 6 сек.</t>
+    <t>2 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>1241</t>
@@ -11102,7 +11102,7 @@
     <t>oboltuz</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>1242</t>
@@ -11111,7 +11111,7 @@
     <t>Rit</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 2 сек.</t>
+    <t>2 ч. 36 мин. 02 сек.</t>
   </si>
   <si>
     <t>1243</t>
@@ -11120,7 +11120,7 @@
     <t>Gal04ka</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 7 сек.</t>
+    <t>2 ч. 35 мин. 07 сек.</t>
   </si>
   <si>
     <t>1244</t>
@@ -11129,7 +11129,7 @@
     <t>jcdenton</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 6 сек.</t>
+    <t>2 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>1245</t>
@@ -11138,7 +11138,7 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 4 сек.</t>
+    <t>2 ч. 35 мин. 04 сек.</t>
   </si>
   <si>
     <t>1246</t>
@@ -11246,7 +11246,7 @@
     <t>n1Riper</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 5 сек.</t>
+    <t>2 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>1258</t>
@@ -11300,7 +11300,7 @@
     <t>Хирург_Смерти</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 7 сек.</t>
+    <t>2 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>1264</t>
@@ -11375,7 +11375,7 @@
     <t>gek1</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 9 сек.</t>
+    <t>2 ч. 30 мин. 09 сек.</t>
   </si>
   <si>
     <t>1273</t>
@@ -11384,7 +11384,7 @@
     <t>eeight</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 3 сек.</t>
+    <t>2 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>1274</t>
@@ -11423,7 +11423,7 @@
     <t>Yerlasdc</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 9 сек.</t>
+    <t>2 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>1279</t>
@@ -11432,7 +11432,7 @@
     <t>бо1</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 2 сек.</t>
+    <t>2 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>1280</t>
@@ -11552,7 +11552,7 @@
     <t>gangres</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 5 сек.</t>
+    <t>2 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>1294</t>
@@ -11561,7 +11561,7 @@
     <t>swik</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 1 сек.</t>
+    <t>2 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>1295</t>
@@ -11624,7 +11624,7 @@
     <t>Leonid_KTRP</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 6 сек.</t>
+    <t>2 ч. 25 мин. 06 сек.</t>
   </si>
   <si>
     <t>1302</t>
@@ -11660,7 +11660,7 @@
     <t>forbatyr</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 1 сек.</t>
+    <t>2 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>1306</t>
@@ -11732,7 +11732,7 @@
     <t>Swatsded</t>
   </si>
   <si>
-    <t>2 ч. 22 мин. 9 сек.</t>
+    <t>2 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>1314</t>
@@ -11750,7 +11750,7 @@
     <t>greenbear</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 8 сек.</t>
+    <t>2 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>1316</t>
@@ -11759,7 +11759,7 @@
     <t>Tellmeboo</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 7 сек.</t>
+    <t>2 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>1317</t>
@@ -11768,7 +11768,7 @@
     <t>Ladimir</t>
   </si>
   <si>
-    <t>2 ч. 21 мин. 6 сек.</t>
+    <t>2 ч. 21 мин. 06 сек.</t>
   </si>
   <si>
     <t>1318</t>
@@ -11795,7 +11795,7 @@
     <t>Тебятожка</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 1 сек.</t>
+    <t>2 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>1321</t>
@@ -11858,7 +11858,7 @@
     <t>Vadim04</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 7 сек.</t>
+    <t>2 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>1328</t>
@@ -11867,7 +11867,7 @@
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 0 сек.</t>
+    <t>2 ч. 19 мин. 00 сек.</t>
   </si>
   <si>
     <t>1329</t>
@@ -11912,7 +11912,7 @@
     <t>Unwear</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 5 сек.</t>
+    <t>2 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>Mirion</t>
@@ -11975,7 +11975,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 6 сек.</t>
+    <t>2 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1343</t>
@@ -12011,7 +12011,7 @@
     <t>Doctorisimus</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 0 сек.</t>
+    <t>2 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>Fudo</t>
@@ -12062,7 +12062,7 @@
     <t>Hell_Knight</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 2 сек.</t>
+    <t>2 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>1354</t>
@@ -12161,7 +12161,7 @@
     <t>l_y_n_x</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 2 сек.</t>
+    <t>2 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>1365</t>
@@ -12215,7 +12215,7 @@
     <t>inine</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 46 сек.</t>
+    <t>2 ч. 09 мин. 46 сек.</t>
   </si>
   <si>
     <t>1371</t>
@@ -12224,7 +12224,7 @@
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 43 сек.</t>
+    <t>2 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>1372</t>
@@ -12233,7 +12233,7 @@
     <t>Camaxtli</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>1373</t>
@@ -12242,7 +12242,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 30 сек.</t>
+    <t>2 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>1374</t>
@@ -12251,7 +12251,7 @@
     <t>siplo</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 23 сек.</t>
+    <t>2 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>1375</t>
@@ -12260,7 +12260,7 @@
     <t>Radonezhskiy</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 13 сек.</t>
+    <t>2 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>1376</t>
@@ -12269,7 +12269,7 @@
     <t>Маркизик</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 12 сек.</t>
+    <t>2 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>1377</t>
@@ -12278,7 +12278,7 @@
     <t>skillup</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 11 сек.</t>
+    <t>2 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>1378</t>
@@ -12287,7 +12287,7 @@
     <t>Caballero</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 38 сек.</t>
+    <t>2 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>1379</t>
@@ -12296,7 +12296,7 @@
     <t>baltazar</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 8 сек.</t>
+    <t>2 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>1380</t>
@@ -12305,7 +12305,7 @@
     <t>ЛОР</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>1381</t>
@@ -12314,7 +12314,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>1382</t>
@@ -12323,7 +12323,7 @@
     <t>dots_and_dashes</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>1383</t>
@@ -12332,7 +12332,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 30 сек.</t>
+    <t>2 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>1384–1385</t>
@@ -12341,7 +12341,7 @@
     <t>akorzun</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 29 сек.</t>
+    <t>2 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>ITur</t>
@@ -12353,7 +12353,7 @@
     <t>wheeeL</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 24 сек.</t>
+    <t>2 ч. 07 мин. 24 сек.</t>
   </si>
   <si>
     <t>1387</t>
@@ -12362,7 +12362,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 8 сек.</t>
+    <t>2 ч. 07 мин. 08 сек.</t>
   </si>
   <si>
     <t>1388</t>
@@ -12371,7 +12371,7 @@
     <t>Алуний</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 0 сек.</t>
+    <t>2 ч. 07 мин. 00 сек.</t>
   </si>
   <si>
     <t>1389</t>
@@ -12380,7 +12380,7 @@
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 41 сек.</t>
+    <t>2 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>1390</t>
@@ -12389,7 +12389,7 @@
     <t>ant1k</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 35 сек.</t>
+    <t>2 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>1391</t>
@@ -12398,7 +12398,7 @@
     <t>O_legich</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 7 сек.</t>
+    <t>2 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>1392</t>
@@ -12407,7 +12407,7 @@
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 30 сек.</t>
+    <t>2 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>1393</t>
@@ -12416,7 +12416,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 24 сек.</t>
+    <t>2 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>1394</t>
@@ -12425,7 +12425,7 @@
     <t>саша</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 16 сек.</t>
+    <t>2 ч. 04 мин. 16 сек.</t>
   </si>
   <si>
     <t>1395</t>
@@ -12434,7 +12434,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 13 сек.</t>
+    <t>2 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>1396</t>
@@ -12443,7 +12443,7 @@
     <t>Lobster28</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>1397</t>
@@ -12452,7 +12452,7 @@
     <t>Шарманщик</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>1398</t>
@@ -12461,7 +12461,7 @@
     <t>raschoska</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 37 сек.</t>
+    <t>2 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>1399</t>
@@ -12470,7 +12470,7 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 31 сек.</t>
+    <t>2 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>1400</t>
@@ -12479,7 +12479,7 @@
     <t>vdkrasniy</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>1401</t>
@@ -12488,7 +12488,7 @@
     <t>KinDK</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 45 сек.</t>
+    <t>2 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>1402</t>
@@ -12497,7 +12497,7 @@
     <t>Yankovich</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>1403</t>
@@ -12506,7 +12506,7 @@
     <t>vladex</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>1404</t>
@@ -12515,7 +12515,7 @@
     <t>ДедМороз</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>1405</t>
@@ -12524,7 +12524,7 @@
     <t>Defaul</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 22 сек.</t>
+    <t>2 ч. 02 мин. 22 сек.</t>
   </si>
   <si>
     <t>1406</t>
@@ -12533,7 +12533,7 @@
     <t>sayanoGOREC</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 18 сек.</t>
+    <t>2 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>1407</t>
@@ -12542,7 +12542,7 @@
     <t>Кинолог</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 0 сек.</t>
+    <t>2 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>1408</t>
@@ -12551,7 +12551,7 @@
     <t>KompoZZytor</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 45 сек.</t>
+    <t>2 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>1409</t>
@@ -12560,7 +12560,7 @@
     <t>banzaichik</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 43 сек.</t>
+    <t>2 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>1410</t>
@@ -12569,7 +12569,7 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>1411</t>
@@ -12578,7 +12578,7 @@
     <t>DOGS</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 1 сек.</t>
+    <t>2 ч. 01 мин. 01 сек.</t>
   </si>
   <si>
     <t>1412</t>
@@ -12587,7 +12587,7 @@
     <t>_kerfoer_</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 46 сек.</t>
+    <t>2 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>1413</t>
@@ -12596,7 +12596,7 @@
     <t>pram</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 37 сек.</t>
+    <t>2 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>1414</t>
@@ -12605,7 +12605,7 @@
     <t>kernal_debuger</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 35 сек.</t>
+    <t>2 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>1415</t>
@@ -12614,7 +12614,7 @@
     <t>Liudmyla</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 29 сек.</t>
+    <t>2 ч. 00 мин. 29 сек.</t>
   </si>
   <si>
     <t>1416</t>
@@ -12623,7 +12623,7 @@
     <t>KiberBot</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 12 сек.</t>
+    <t>2 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>1417</t>
@@ -12632,7 +12632,7 @@
     <t>MyxaMopxD</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>1418</t>
@@ -12659,7 +12659,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 7 сек.</t>
+    <t>1 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>suffering</t>
@@ -12809,7 +12809,7 @@
     <t>petzsch</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>1439</t>
@@ -12845,7 +12845,7 @@
     <t>-ItachiUchiha-</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 9 сек.</t>
+    <t>1 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>1443</t>
@@ -12854,7 +12854,7 @@
     <t>Попутчик</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 8 сек.</t>
+    <t>1 ч. 53 мин. 08 сек.</t>
   </si>
   <si>
     <t>1444</t>
@@ -12902,7 +12902,7 @@
     <t>Andrey999K</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 5 сек.</t>
+    <t>1 ч. 52 мин. 05 сек.</t>
   </si>
   <si>
     <t>1450</t>
@@ -12947,7 +12947,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 4 сек.</t>
+    <t>1 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>1455–1456</t>
@@ -13052,7 +13052,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 2 сек.</t>
+    <t>1 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>1468</t>
@@ -13097,7 +13097,7 @@
     <t>Инженер555</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 7 сек.</t>
+    <t>1 ч. 48 мин. 07 сек.</t>
   </si>
   <si>
     <t>1473</t>
@@ -13106,7 +13106,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>1 ч. 48 мин. 5 сек.</t>
+    <t>1 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>1474</t>
@@ -13178,7 +13178,7 @@
     <t>sklippy</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 7 сек.</t>
+    <t>1 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>1482</t>
@@ -13187,7 +13187,7 @@
     <t>karl_hungus</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 1 сек.</t>
+    <t>1 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>1483</t>
@@ -13214,7 +13214,7 @@
     <t>fugas_ananas</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>1486</t>
@@ -13277,7 +13277,7 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 6 сек.</t>
+    <t>1 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>1493–1494</t>
@@ -13286,7 +13286,7 @@
     <t>-Advanced-</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 5 сек.</t>
+    <t>1 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>gala_top</t>
@@ -13373,7 +13373,7 @@
     <t>grpvrp</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 7 сек.</t>
+    <t>1 ч. 41 мин. 07 сек.</t>
   </si>
   <si>
     <t>1505–1506</t>
@@ -13421,7 +13421,7 @@
     <t>Малышка_Эн</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 2 сек.</t>
+    <t>1 ч. 40 мин. 02 сек.</t>
   </si>
   <si>
     <t>1511</t>
@@ -13448,7 +13448,7 @@
     <t>Haarspalter</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 8 сек.</t>
+    <t>1 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>1514</t>
@@ -13457,7 +13457,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>1 ч. 39 мин. 5 сек.</t>
+    <t>1 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>1515</t>
@@ -13493,7 +13493,7 @@
     <t>С_майлик</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 8 сек.</t>
+    <t>1 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>1519</t>
@@ -13631,7 +13631,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>1535</t>
@@ -13640,7 +13640,7 @@
     <t>lazy</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 5 сек.</t>
+    <t>1 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>1536</t>
@@ -13811,7 +13811,7 @@
     <t>Алька007</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 7 сек.</t>
+    <t>1 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>vafli</t>
@@ -13832,7 +13832,7 @@
     <t>Кусака</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 8 сек.</t>
+    <t>1 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>1558</t>
@@ -13859,7 +13859,7 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 4 сек.</t>
+    <t>1 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>1561</t>
@@ -13958,7 +13958,7 @@
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 2 сек.</t>
+    <t>1 ч. 21 мин. 02 сек.</t>
   </si>
   <si>
     <t>1572</t>
@@ -14012,7 +14012,7 @@
     <t>Pastor_nak</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 1 сек.</t>
+    <t>1 ч. 18 мин. 01 сек.</t>
   </si>
   <si>
     <t>1578</t>
@@ -14039,7 +14039,7 @@
     <t>Trafalgar_Law</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 6 сек.</t>
+    <t>1 ч. 16 мин. 06 сек.</t>
   </si>
   <si>
     <t>1581</t>
@@ -14048,7 +14048,7 @@
     <t>_Хантер_</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 2 сек.</t>
+    <t>1 ч. 16 мин. 02 сек.</t>
   </si>
   <si>
     <t>1582</t>
@@ -14102,7 +14102,7 @@
     <t>Cheers</t>
   </si>
   <si>
-    <t>1 ч. 12 мин. 8 сек.</t>
+    <t>1 ч. 12 мин. 08 сек.</t>
   </si>
   <si>
     <t>1588</t>
@@ -14147,7 +14147,7 @@
     <t>Batterc</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 18 сек.</t>
+    <t>1 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>1593</t>
@@ -14156,7 +14156,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>1594</t>
@@ -14165,7 +14165,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 20 сек.</t>
+    <t>1 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>1595</t>
@@ -14174,7 +14174,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 11 сек.</t>
+    <t>1 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>1596</t>
@@ -14183,7 +14183,7 @@
     <t>nebovluje</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 57 сек.</t>
+    <t>1 ч. 05 мин. 57 сек.</t>
   </si>
   <si>
     <t>1597</t>
@@ -14192,7 +14192,7 @@
     <t>AngelOfDream</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 59 сек.</t>
+    <t>1 ч. 04 мин. 59 сек.</t>
   </si>
   <si>
     <t>1598</t>
@@ -14201,7 +14201,7 @@
     <t>-Wanted-</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 33 сек.</t>
+    <t>1 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>1599</t>
@@ -14210,7 +14210,7 @@
     <t>Silvelu</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 30 сек.</t>
+    <t>1 ч. 04 мин. 30 сек.</t>
   </si>
   <si>
     <t>1600</t>
@@ -14219,7 +14219,7 @@
     <t>etojan</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>1601</t>
